--- a/Main/test/results/noisePOS.xlsx
+++ b/Main/test/results/noisePOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,32 +469,34 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8535834456127182</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8535834456127182</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.9803661644705515</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8662034271792135</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9753371152944206</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
@@ -502,32 +504,34 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8535834456127182</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.011810552971223</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0146411896207432</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.0113173323428315</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.621266222812455</t>
+          <t>10.62</t>
         </is>
       </c>
     </row>
@@ -535,32 +539,34 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0191790723507563</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8535834456127182</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.936338643120869</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.619358781028243</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.889923535909261</t>
+          <t>8.89</t>
         </is>
       </c>
     </row>
@@ -568,32 +574,34 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0245011658941354</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.936338643120869</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.936338643120869</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.308554383320864</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14.522160804278531</t>
+          <t>14.52</t>
         </is>
       </c>
     </row>
@@ -601,32 +609,34 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0191790723507563</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.070262875470123</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.9862048078585258</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15.732505158126003</t>
+          <t>15.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>155876.28035811768</t>
+          <t>155876.28</t>
         </is>
       </c>
     </row>
@@ -634,32 +644,34 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0191790723507563</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9862048078585258</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.9862048078585258</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.621266222812455</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.619358781028243</t>
+          <t>10.62</t>
         </is>
       </c>
     </row>
@@ -667,32 +679,34 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80.15496194831233</t>
+          <t>80.15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.9753371152944206</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9108275132653995</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9482963872100056</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.579655442275493</t>
+          <t>10.58</t>
         </is>
       </c>
     </row>
@@ -700,32 +714,34 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9418996631309313</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.9753371152944206</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>378.44074392551227</t>
+          <t>378.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.0191790723507563</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.620538481344589</t>
+          <t>10.62</t>
         </is>
       </c>
     </row>
@@ -733,32 +749,34 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8738580524107997</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.0002507709689612</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.9711306084601468</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.756732300497239</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.636197629559451</t>
+          <t>10.64</t>
         </is>
       </c>
     </row>
@@ -766,32 +784,34 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9711306084601468</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.9928384012056932</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.0191790723507563</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.0084243906884163</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.623263164196796</t>
+          <t>10.62</t>
         </is>
       </c>
     </row>
@@ -827,6 +847,41 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
